--- a/就職作品プロジェクト/AssetFile/Csv/Book1.xlsx
+++ b/就職作品プロジェクト/AssetFile/Csv/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorae\Desktop\HAL\class3\FindWork\就職作品プロジェクト\AssetFile\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6132F3C9-1D30-4F4A-A3CE-CC614E431FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0AD4AF-B006-4284-895E-456EA728D146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{071ACB82-3AB2-482F-8AFF-BAC0110BE0D4}"/>
   </bookViews>
@@ -36,17 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>うｊ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ik</t>
+    <t>TitleScene</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,25 +423,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F5E312-343F-490F-837E-D682A13A4979}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/就職作品プロジェクト/AssetFile/Csv/Book1.xlsx
+++ b/就職作品プロジェクト/AssetFile/Csv/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorae\Desktop\HAL\class3\FindWork\就職作品プロジェクト\AssetFile\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0AD4AF-B006-4284-895E-456EA728D146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B0FBB7-047D-4943-BF22-F20969226112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{071ACB82-3AB2-482F-8AFF-BAC0110BE0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TitleScene" sheetId="1" r:id="rId1"/>
+    <sheet name="GameSceneWait" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>TitleScene</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,22 +417,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F5E312-343F-490F-837E-D682A13A4979}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F032DF-B900-4C34-BA15-45FB2675E760}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
